--- a/Supplement/TABLE_S1.xlsx
+++ b/Supplement/TABLE_S1.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eanttila/Documents/GitHub/Anttila_et_al_CRV_2024/Supplement/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eanttila/Documents/GitHub/Anttila_et_al_Coast_Range_2024/Supplement/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2C5F628-4E02-4D42-856D-9930201D7106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38A129D4-D57F-534B-BD52-F19E6E8AB892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3100" yWindow="760" windowWidth="25820" windowHeight="16420" xr2:uid="{E6EAEA9F-A966-D44E-AB5D-1705853E1AF3}"/>
+    <workbookView xWindow="-340" yWindow="-28280" windowWidth="27940" windowHeight="18920" xr2:uid="{E6EAEA9F-A966-D44E-AB5D-1705853E1AF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="191029" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -77,9 +77,6 @@
     <t>Sonoma Volcanics, St Helena</t>
   </si>
   <si>
-    <t>lithic tuff</t>
-  </si>
-  <si>
     <t>SON9</t>
   </si>
   <si>
@@ -191,18 +188,12 @@
     <t>Beechers Bay Formation</t>
   </si>
   <si>
-    <t>Santa Cruz Island, Beechers Bay unit; highest stratigraphic level exposure</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
     <t>BBL</t>
   </si>
   <si>
-    <t>Santa Cruz Island, base of Beechers Bay member</t>
-  </si>
-  <si>
     <t>SCI-N1</t>
   </si>
   <si>
@@ -330,6 +321,15 @@
   </si>
   <si>
     <t>Cambria Felsite MR-IH</t>
+  </si>
+  <si>
+    <t>rhyolitic crystal-lithic tuff</t>
+  </si>
+  <si>
+    <t>dacite-andesite volcaniclastic conglomerate. Beechers Bay unit; highest stratigraphic level exposure</t>
+  </si>
+  <si>
+    <t>dacite-andesite volcaniclastic conglomerate.  Beechers Bay unit; lowest stratigraphic level exposure</t>
   </si>
 </sst>
 </file>
@@ -514,7 +514,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -562,25 +562,22 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="12" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="12" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -919,8 +916,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3F2D74E-4581-9A4C-B65D-59760AF8C6EF}">
   <dimension ref="A1:AE985"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.6640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -992,38 +990,38 @@
       <c r="AE1" s="2"/>
     </row>
     <row r="2" spans="1:31" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="17">
+      <c r="B2" s="13">
         <v>11</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="17">
+      <c r="D2" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" s="13">
         <v>38.624235779999999</v>
       </c>
-      <c r="F2" s="17">
+      <c r="F2" s="13">
         <v>-122.5993881</v>
       </c>
-      <c r="G2" s="17">
+      <c r="G2" s="13">
         <v>3.35</v>
       </c>
-      <c r="H2" s="18">
+      <c r="H2" s="17">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="I2" s="17">
+      <c r="I2" s="13">
         <v>1.51</v>
       </c>
-      <c r="J2" s="17">
+      <c r="J2" s="13">
         <v>10</v>
       </c>
-      <c r="K2" s="18">
-        <v>10.3762604</v>
+      <c r="K2" s="17">
+        <v>9.5500000000000007</v>
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -1047,38 +1045,38 @@
       <c r="AE2" s="5"/>
     </row>
     <row r="3" spans="1:31" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="13">
+        <v>11</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="17">
-        <v>11</v>
-      </c>
-      <c r="C3" s="17" t="s">
+      <c r="D3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="17">
+      <c r="E3" s="13">
         <v>38.344935579999998</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F3" s="13">
         <v>-122.250872</v>
       </c>
-      <c r="G3" s="17">
+      <c r="G3" s="13">
         <v>4.71</v>
       </c>
-      <c r="H3" s="18">
+      <c r="H3" s="17">
         <v>9.4200000000000006E-2</v>
       </c>
-      <c r="I3" s="17">
+      <c r="I3" s="13">
         <v>0.69899999999999995</v>
       </c>
-      <c r="J3" s="17">
+      <c r="J3" s="13">
         <v>8</v>
       </c>
-      <c r="K3" s="18">
-        <v>17.4468499</v>
+      <c r="K3" s="17">
+        <v>12.31</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -1102,38 +1100,38 @@
       <c r="AE3" s="5"/>
     </row>
     <row r="4" spans="1:31" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="13">
+        <v>11</v>
+      </c>
+      <c r="C4" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="17">
-        <v>11</v>
-      </c>
-      <c r="C4" s="19" t="s">
+      <c r="D4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="17">
+      <c r="E4" s="13">
         <v>37.866109999999999</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="13">
         <v>-122.2069</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="13">
         <v>9.93</v>
       </c>
-      <c r="H4" s="18">
+      <c r="H4" s="17">
         <f>G4*0.02</f>
         <v>0.1986</v>
       </c>
-      <c r="I4" s="17">
+      <c r="I4" s="13">
         <v>0.97399999999999998</v>
       </c>
-      <c r="J4" s="17">
+      <c r="J4" s="13">
         <v>16</v>
       </c>
-      <c r="K4" s="18">
+      <c r="K4" s="17">
         <v>9.9268194030308248</v>
       </c>
       <c r="L4" s="1"/>
@@ -1158,39 +1156,39 @@
       <c r="AE4" s="5"/>
     </row>
     <row r="5" spans="1:31" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="13">
+        <v>11</v>
+      </c>
+      <c r="C5" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="17">
-        <v>11</v>
-      </c>
-      <c r="C5" s="19" t="s">
+      <c r="D5" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="20">
+      <c r="E5" s="19">
         <v>37.865270000000002</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="19">
         <v>-122.2089</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="13">
         <v>10.029999999999999</v>
       </c>
-      <c r="H5" s="18">
+      <c r="H5" s="17">
         <f>0.02*G5</f>
         <v>0.2006</v>
       </c>
-      <c r="I5" s="17">
+      <c r="I5" s="13">
         <v>1.42</v>
       </c>
-      <c r="J5" s="17">
+      <c r="J5" s="13">
         <v>12</v>
       </c>
-      <c r="K5" s="18">
-        <v>10.926521288470905</v>
+      <c r="K5" s="17">
+        <v>10.26</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -1214,39 +1212,39 @@
       <c r="AE5" s="5"/>
     </row>
     <row r="6" spans="1:31" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="13">
+        <v>10</v>
+      </c>
+      <c r="C6" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="17">
-        <v>10</v>
-      </c>
-      <c r="C6" s="19" t="s">
+      <c r="D6" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="21">
+      <c r="E6" s="20">
         <v>38.145591000000003</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="13">
         <v>-122.5909</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="13">
         <v>11.11</v>
       </c>
-      <c r="H6" s="18">
+      <c r="H6" s="17">
         <f>0.02*G6</f>
         <v>0.22219999999999998</v>
       </c>
-      <c r="I6" s="17">
+      <c r="I6" s="13">
         <v>1.3</v>
       </c>
-      <c r="J6" s="17">
+      <c r="J6" s="13">
         <v>11</v>
       </c>
-      <c r="K6" s="18">
-        <v>11.744654377957463</v>
+      <c r="K6" s="17">
+        <v>11.27</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
@@ -1270,39 +1268,39 @@
       <c r="AE6" s="5"/>
     </row>
     <row r="7" spans="1:31" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="C7" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="20">
+      <c r="D7" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="19">
         <v>37.892184</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="19">
         <v>-122.27306</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G7" s="17">
         <v>11.209</v>
       </c>
-      <c r="H7" s="18">
+      <c r="H7" s="17">
         <f>0.02*G7</f>
         <v>0.22417999999999999</v>
       </c>
-      <c r="I7" s="17">
+      <c r="I7" s="13">
         <v>1.73</v>
       </c>
-      <c r="J7" s="17">
+      <c r="J7" s="13">
         <v>7</v>
       </c>
-      <c r="K7" s="18">
-        <v>13.274548340690977</v>
+      <c r="K7" s="17">
+        <v>12.8</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -1326,39 +1324,39 @@
       <c r="AE7" s="5"/>
     </row>
     <row r="8" spans="1:31" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="13">
+        <v>45</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="17">
-        <v>45</v>
-      </c>
-      <c r="C8" s="17" t="s">
+      <c r="D8" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="17">
+      <c r="E8" s="13">
         <v>33.734678000000002</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="20">
         <v>-118.368442</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="13">
         <v>14.72</v>
       </c>
-      <c r="H8" s="18">
-        <f>G8*0.02</f>
+      <c r="H8" s="17">
+        <f t="shared" ref="H8:H13" si="0">G8*0.02</f>
         <v>0.2944</v>
       </c>
-      <c r="I8" s="17">
+      <c r="I8" s="13">
         <v>0.87</v>
       </c>
-      <c r="J8" s="22">
+      <c r="J8" s="21">
         <v>0.83333333333333337</v>
       </c>
-      <c r="K8" s="18">
-        <v>11.204150471253667</v>
+      <c r="K8" s="17">
+        <v>10.43</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -1382,39 +1380,39 @@
       <c r="AE8" s="5"/>
     </row>
     <row r="9" spans="1:31" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="13">
+        <v>41</v>
+      </c>
+      <c r="C9" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="17">
+      <c r="D9" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="13">
+        <v>34.087860999999997</v>
+      </c>
+      <c r="F9" s="20">
+        <v>-117.811583</v>
+      </c>
+      <c r="G9" s="13">
+        <v>16.23</v>
+      </c>
+      <c r="H9" s="17">
+        <f t="shared" si="0"/>
+        <v>0.3246</v>
+      </c>
+      <c r="I9" s="13">
+        <v>0.7</v>
+      </c>
+      <c r="J9" s="13">
         <v>41</v>
       </c>
-      <c r="C9" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="17">
-        <v>34.087860999999997</v>
-      </c>
-      <c r="F9" s="21">
-        <v>-117.811583</v>
-      </c>
-      <c r="G9" s="17">
-        <v>16.23</v>
-      </c>
-      <c r="H9" s="18">
-        <f>G9*0.02</f>
-        <v>0.3246</v>
-      </c>
-      <c r="I9" s="17">
-        <v>0.7</v>
-      </c>
-      <c r="J9" s="17">
-        <v>41</v>
-      </c>
-      <c r="K9" s="18">
-        <v>8.5226450981565502</v>
+      <c r="K9" s="17">
+        <v>9.51</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -1438,39 +1436,39 @@
       <c r="AE9" s="5"/>
     </row>
     <row r="10" spans="1:31" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="13">
+        <v>26</v>
+      </c>
+      <c r="C10" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="17">
-        <v>26</v>
-      </c>
-      <c r="C10" s="21" t="s">
+      <c r="D10" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="21">
+      <c r="E10" s="20">
         <v>33.9931883</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="13">
         <v>-119.8225284</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="13">
         <v>16.79</v>
       </c>
-      <c r="H10" s="18">
-        <f>G10*0.02</f>
+      <c r="H10" s="17">
+        <f t="shared" si="0"/>
         <v>0.33579999999999999</v>
       </c>
-      <c r="I10" s="17">
+      <c r="I10" s="13">
         <v>1.1599999999999999</v>
       </c>
-      <c r="J10" s="17">
+      <c r="J10" s="13">
         <v>34</v>
       </c>
-      <c r="K10" s="18">
-        <v>9.4857808369312373</v>
+      <c r="K10" s="17">
+        <v>9.15</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -1494,38 +1492,38 @@
       <c r="AE10" s="5"/>
     </row>
     <row r="11" spans="1:31" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="13">
+        <v>26</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="17">
-        <v>26</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="17" t="s">
+      <c r="E11" s="20">
+        <v>33.989166699999998</v>
+      </c>
+      <c r="F11" s="13">
+        <v>-119.82061109999999</v>
+      </c>
+      <c r="G11" s="17">
+        <v>16.952999999999999</v>
+      </c>
+      <c r="H11" s="17">
+        <f t="shared" si="0"/>
+        <v>0.33905999999999997</v>
+      </c>
+      <c r="I11" s="13">
+        <v>0.87</v>
+      </c>
+      <c r="J11" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="21">
-        <v>33.989166699999998</v>
-      </c>
-      <c r="F11" s="17">
-        <v>-119.82061109999999</v>
-      </c>
-      <c r="G11" s="18">
-        <v>16.952999999999999</v>
-      </c>
-      <c r="H11" s="18">
-        <f>G11*0.02</f>
-        <v>0.33905999999999997</v>
-      </c>
-      <c r="I11" s="17">
-        <v>0.87</v>
-      </c>
-      <c r="J11" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="K11" s="18">
+      <c r="K11" s="17">
         <v>8.3312088524398895</v>
       </c>
       <c r="L11" s="1"/>
@@ -1550,38 +1548,38 @@
       <c r="AE11" s="5"/>
     </row>
     <row r="12" spans="1:31" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="13">
+        <v>26</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="17">
-        <v>26</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="17">
+      <c r="E12" s="13">
         <v>34.001448500000002</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="13">
         <v>-119.83276859999999</v>
       </c>
-      <c r="G12" s="18">
+      <c r="G12" s="17">
         <v>17.196999999999999</v>
       </c>
-      <c r="H12" s="18">
-        <f>G12*0.02</f>
+      <c r="H12" s="17">
+        <f t="shared" si="0"/>
         <v>0.34393999999999997</v>
       </c>
-      <c r="I12" s="17">
+      <c r="I12" s="13">
         <v>0.83</v>
       </c>
-      <c r="J12" s="17">
+      <c r="J12" s="13">
         <v>44</v>
       </c>
-      <c r="K12" s="18">
+      <c r="K12" s="17">
         <v>9.6593154180330458</v>
       </c>
       <c r="L12" s="1"/>
@@ -1606,38 +1604,38 @@
       <c r="AE12" s="5"/>
     </row>
     <row r="13" spans="1:31" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="13">
+        <v>26</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="17">
-        <v>26</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="21">
+      <c r="E13" s="20">
         <v>34.001396800000002</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F13" s="13">
         <v>-119.8329066</v>
       </c>
-      <c r="G13" s="17">
+      <c r="G13" s="13">
         <v>17.23</v>
       </c>
-      <c r="H13" s="18">
-        <f>G13*0.02</f>
+      <c r="H13" s="17">
+        <f t="shared" si="0"/>
         <v>0.34460000000000002</v>
       </c>
-      <c r="I13" s="17">
+      <c r="I13" s="13">
         <v>1.04</v>
       </c>
-      <c r="J13" s="17">
+      <c r="J13" s="13">
         <v>53</v>
       </c>
-      <c r="K13" s="18">
+      <c r="K13" s="17">
         <v>9.2386433206224936</v>
       </c>
       <c r="L13" s="1"/>
@@ -1662,38 +1660,38 @@
       <c r="AE13" s="5"/>
     </row>
     <row r="14" spans="1:31" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="13">
+        <v>26</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="17">
-        <v>26</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" s="21">
+      <c r="E14" s="20">
         <v>33.988638899999998</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F14" s="13">
         <v>-119.82011110000001</v>
       </c>
-      <c r="G14" s="18">
+      <c r="G14" s="17">
         <v>17.327999999999999</v>
       </c>
-      <c r="H14" s="18">
+      <c r="H14" s="17">
         <f>0.02*G14</f>
         <v>0.34655999999999998</v>
       </c>
-      <c r="I14" s="17">
+      <c r="I14" s="13">
         <v>0.97499999999999998</v>
       </c>
-      <c r="J14" s="17">
+      <c r="J14" s="13">
         <v>77</v>
       </c>
-      <c r="K14" s="18">
+      <c r="K14" s="17">
         <v>8.2608652705781953</v>
       </c>
       <c r="L14" s="1"/>
@@ -1718,38 +1716,38 @@
       <c r="AE14" s="5"/>
     </row>
     <row r="15" spans="1:31" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="13">
+        <v>26</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="17">
-        <v>26</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" s="21">
+      <c r="E15" s="20">
         <v>33.997361099999999</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F15" s="13">
         <v>-119.8378333</v>
       </c>
-      <c r="G15" s="18">
+      <c r="G15" s="17">
         <v>17.437000000000001</v>
       </c>
-      <c r="H15" s="18">
+      <c r="H15" s="17">
         <f>0.02*G15</f>
         <v>0.34874000000000005</v>
       </c>
-      <c r="I15" s="17">
+      <c r="I15" s="13">
         <v>1.1499999999999999</v>
       </c>
-      <c r="J15" s="17">
+      <c r="J15" s="13">
         <v>36</v>
       </c>
-      <c r="K15" s="18">
+      <c r="K15" s="17">
         <v>9.7686457761823799</v>
       </c>
       <c r="L15" s="1"/>
@@ -1774,39 +1772,39 @@
       <c r="AE15" s="5"/>
     </row>
     <row r="16" spans="1:31" s="4" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="13">
+        <v>26</v>
+      </c>
+      <c r="C16" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="17">
-        <v>26</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" s="17">
+      <c r="D16" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="E16" s="13">
         <v>33.979957800000001</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F16" s="13">
         <v>-119.87363550000001</v>
       </c>
-      <c r="G16" s="17">
+      <c r="G16" s="13">
         <v>17.36</v>
       </c>
-      <c r="H16" s="18">
+      <c r="H16" s="17">
         <f>0.02*G16</f>
         <v>0.34720000000000001</v>
       </c>
-      <c r="I16" s="17">
+      <c r="I16" s="13">
         <v>0.106</v>
       </c>
-      <c r="J16" s="17">
+      <c r="J16" s="13">
         <v>4</v>
       </c>
-      <c r="K16" s="18" t="s">
-        <v>52</v>
+      <c r="K16" s="17" t="s">
+        <v>50</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
@@ -1830,39 +1828,39 @@
       <c r="AE16" s="5"/>
     </row>
     <row r="17" spans="1:31" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17" s="17">
+      <c r="A17" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="13">
         <v>26</v>
       </c>
-      <c r="C17" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="E17" s="21">
+      <c r="C17" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="E17" s="20">
         <v>33.980479600000002</v>
       </c>
-      <c r="F17" s="17">
+      <c r="F17" s="13">
         <v>-119.8709295</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="17">
         <v>17.585999999999999</v>
       </c>
-      <c r="H17" s="18">
+      <c r="H17" s="17">
         <f>0.02*G17</f>
         <v>0.35171999999999998</v>
       </c>
-      <c r="I17" s="17">
+      <c r="I17" s="13">
         <v>1.28</v>
       </c>
-      <c r="J17" s="17">
+      <c r="J17" s="13">
         <v>15</v>
       </c>
-      <c r="K17" s="18" t="s">
-        <v>52</v>
+      <c r="K17" s="17" t="s">
+        <v>50</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
@@ -1886,39 +1884,39 @@
       <c r="AE17" s="5"/>
     </row>
     <row r="18" spans="1:31" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="B18" s="17">
+      <c r="A18" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="13">
         <v>24</v>
       </c>
-      <c r="C18" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E18" s="17">
+      <c r="C18" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="13">
         <v>34.016395500000002</v>
       </c>
-      <c r="F18" s="17">
+      <c r="F18" s="13">
         <v>-119.8032118</v>
       </c>
-      <c r="G18" s="17">
+      <c r="G18" s="13">
         <v>17.45</v>
       </c>
-      <c r="H18" s="18">
+      <c r="H18" s="17">
         <f>G18*0.02</f>
         <v>0.34899999999999998</v>
       </c>
-      <c r="I18" s="17">
+      <c r="I18" s="13">
         <v>0.73699999999999999</v>
       </c>
-      <c r="J18" s="17">
+      <c r="J18" s="13">
         <v>65</v>
       </c>
-      <c r="K18" s="18">
-        <v>9.4875960754893924</v>
+      <c r="K18" s="17">
+        <v>8.2100000000000009</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
@@ -1942,39 +1940,39 @@
       <c r="AE18" s="5"/>
     </row>
     <row r="19" spans="1:31" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="17">
+      <c r="A19" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="13">
         <v>27</v>
       </c>
-      <c r="C19" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="E19" s="17">
+      <c r="C19" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="13">
         <v>34.185271999999998</v>
       </c>
-      <c r="F19" s="21">
+      <c r="F19" s="20">
         <v>-118.887636</v>
       </c>
-      <c r="G19" s="17">
+      <c r="G19" s="13">
         <v>17.010000000000002</v>
       </c>
-      <c r="H19" s="18">
+      <c r="H19" s="17">
         <f>G19*0.02</f>
         <v>0.34020000000000006</v>
       </c>
-      <c r="I19" s="23">
+      <c r="I19" s="22">
         <v>4.26</v>
       </c>
-      <c r="J19" s="17">
+      <c r="J19" s="13">
         <v>2</v>
       </c>
-      <c r="K19" s="18" t="s">
-        <v>52</v>
+      <c r="K19" s="17" t="s">
+        <v>50</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
@@ -1998,38 +1996,38 @@
       <c r="AE19" s="5"/>
     </row>
     <row r="20" spans="1:31" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="B20" s="17">
+      <c r="A20" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="13">
         <v>22</v>
       </c>
-      <c r="C20" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" s="17">
+      <c r="C20" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="13">
         <v>35.135568999999997</v>
       </c>
-      <c r="F20" s="21">
+      <c r="F20" s="20">
         <v>-120.639889</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="17">
         <v>17.295000000000002</v>
       </c>
-      <c r="H20" s="18">
-        <f t="shared" ref="H20:H33" si="0">G20*0.02</f>
+      <c r="H20" s="17">
+        <f t="shared" ref="H20:H33" si="1">G20*0.02</f>
         <v>0.34590000000000004</v>
       </c>
-      <c r="I20" s="17">
+      <c r="I20" s="13">
         <v>0.746</v>
       </c>
-      <c r="J20" s="17">
+      <c r="J20" s="13">
         <v>51</v>
       </c>
-      <c r="K20" s="18">
+      <c r="K20" s="17">
         <v>7.3726312100275049</v>
       </c>
       <c r="L20" s="1"/>
@@ -2054,38 +2052,38 @@
       <c r="AE20" s="5"/>
     </row>
     <row r="21" spans="1:31" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="B21" s="17">
+      <c r="A21" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="13">
         <v>22</v>
       </c>
-      <c r="C21" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="E21" s="17">
+      <c r="C21" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="13">
         <v>34.884538999999997</v>
       </c>
-      <c r="F21" s="21">
+      <c r="F21" s="20">
         <v>-120.638825</v>
       </c>
-      <c r="G21" s="17">
+      <c r="G21" s="13">
         <v>17.86</v>
       </c>
-      <c r="H21" s="18">
-        <f t="shared" si="0"/>
+      <c r="H21" s="17">
+        <f t="shared" si="1"/>
         <v>0.35720000000000002</v>
       </c>
-      <c r="I21" s="17">
+      <c r="I21" s="13">
         <v>0.89</v>
       </c>
-      <c r="J21" s="17">
+      <c r="J21" s="13">
         <v>12</v>
       </c>
-      <c r="K21" s="18">
+      <c r="K21" s="17">
         <v>7.2073320332303235</v>
       </c>
       <c r="L21" s="1"/>
@@ -2110,38 +2108,38 @@
       <c r="AE21" s="5"/>
     </row>
     <row r="22" spans="1:31" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="B22" s="17">
+      <c r="A22" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="13">
         <v>30</v>
       </c>
-      <c r="C22" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="E22" s="17">
+      <c r="C22" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" s="13">
         <v>34.582757999999998</v>
       </c>
-      <c r="F22" s="21">
+      <c r="F22" s="20">
         <v>-120.561244</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G22" s="17">
         <v>18.477</v>
       </c>
-      <c r="H22" s="18">
-        <f t="shared" si="0"/>
+      <c r="H22" s="17">
+        <f t="shared" si="1"/>
         <v>0.36954000000000004</v>
       </c>
-      <c r="I22" s="17">
+      <c r="I22" s="13">
         <v>0.93300000000000005</v>
       </c>
-      <c r="J22" s="17">
+      <c r="J22" s="13">
         <v>18</v>
       </c>
-      <c r="K22" s="18">
+      <c r="K22" s="17">
         <v>4.4450764766284259</v>
       </c>
       <c r="L22" s="1"/>
@@ -2166,39 +2164,39 @@
       <c r="AE22" s="5"/>
     </row>
     <row r="23" spans="1:31" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="B23" s="17">
+      <c r="A23" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="13">
         <v>35</v>
       </c>
-      <c r="C23" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E23" s="17">
+      <c r="C23" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="13">
         <v>34.948416999999999</v>
       </c>
-      <c r="F23" s="21">
+      <c r="F23" s="20">
         <v>-118.82816699999999</v>
       </c>
-      <c r="G23" s="17">
+      <c r="G23" s="13">
         <v>22.34</v>
       </c>
-      <c r="H23" s="18">
-        <f t="shared" si="0"/>
+      <c r="H23" s="17">
+        <f t="shared" si="1"/>
         <v>0.44680000000000003</v>
       </c>
-      <c r="I23" s="17">
+      <c r="I23" s="13">
         <v>1.1000000000000001</v>
       </c>
-      <c r="J23" s="17">
+      <c r="J23" s="13">
         <v>7</v>
       </c>
-      <c r="K23" s="18">
-        <v>6.5428549481666396</v>
+      <c r="K23" s="17">
+        <v>1.68</v>
       </c>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
@@ -2222,38 +2220,38 @@
       <c r="AE23" s="5"/>
     </row>
     <row r="24" spans="1:31" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="B24" s="17">
+      <c r="A24" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" s="13">
         <v>15</v>
       </c>
-      <c r="C24" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="E24" s="17">
+      <c r="C24" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="13">
         <v>36.815277999999999</v>
       </c>
-      <c r="F24" s="21">
+      <c r="F24" s="20">
         <v>-121.575861</v>
       </c>
-      <c r="G24" s="17">
+      <c r="G24" s="13">
         <v>22.52</v>
       </c>
-      <c r="H24" s="18">
-        <f t="shared" si="0"/>
+      <c r="H24" s="17">
+        <f t="shared" si="1"/>
         <v>0.45040000000000002</v>
       </c>
-      <c r="I24" s="17">
+      <c r="I24" s="13">
         <v>1.8</v>
       </c>
-      <c r="J24" s="17">
+      <c r="J24" s="13">
         <v>9</v>
       </c>
-      <c r="K24" s="18">
+      <c r="K24" s="17">
         <v>1.6077602910977895</v>
       </c>
       <c r="L24" s="1"/>
@@ -2278,38 +2276,38 @@
       <c r="AE24" s="5"/>
     </row>
     <row r="25" spans="1:31" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="B25" s="17">
+      <c r="A25" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" s="13">
         <v>15</v>
       </c>
-      <c r="C25" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="E25" s="17">
+      <c r="C25" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E25" s="13">
         <v>36.483694</v>
       </c>
-      <c r="F25" s="21">
+      <c r="F25" s="20">
         <v>-121.18722200000001</v>
       </c>
-      <c r="G25" s="17">
+      <c r="G25" s="13">
         <v>23.5</v>
       </c>
-      <c r="H25" s="18">
-        <f t="shared" si="0"/>
+      <c r="H25" s="17">
+        <f t="shared" si="1"/>
         <v>0.47000000000000003</v>
       </c>
-      <c r="I25" s="17">
+      <c r="I25" s="13">
         <v>0.85</v>
       </c>
-      <c r="J25" s="17">
+      <c r="J25" s="13">
         <v>18</v>
       </c>
-      <c r="K25" s="18">
+      <c r="K25" s="17">
         <v>8.7317943361979218</v>
       </c>
       <c r="L25" s="1"/>
@@ -2334,38 +2332,38 @@
       <c r="AE25" s="5"/>
     </row>
     <row r="26" spans="1:31" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="B26" s="17">
+      <c r="A26" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" s="13">
         <v>15</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="D26" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="E26" s="17">
+      <c r="E26" s="13">
         <v>36.485250000000001</v>
       </c>
-      <c r="F26" s="21">
+      <c r="F26" s="20">
         <v>-121.192667</v>
       </c>
-      <c r="G26" s="17">
+      <c r="G26" s="13">
         <v>24.14</v>
       </c>
-      <c r="H26" s="18">
-        <f t="shared" si="0"/>
+      <c r="H26" s="17">
+        <f t="shared" si="1"/>
         <v>0.48280000000000001</v>
       </c>
-      <c r="I26" s="17">
+      <c r="I26" s="13">
         <v>1.47</v>
       </c>
-      <c r="J26" s="17">
+      <c r="J26" s="13">
         <v>21</v>
       </c>
-      <c r="K26" s="18">
+      <c r="K26" s="17">
         <v>3.9236523742836651</v>
       </c>
       <c r="L26" s="1"/>
@@ -2390,39 +2388,39 @@
       <c r="AE26" s="5"/>
     </row>
     <row r="27" spans="1:31" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="B27" s="17">
+      <c r="A27" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" s="13">
         <v>15</v>
       </c>
-      <c r="C27" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="E27" s="17">
+      <c r="C27" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="13">
         <v>36.498860999999998</v>
       </c>
-      <c r="F27" s="21">
+      <c r="F27" s="20">
         <v>-121.176917</v>
       </c>
-      <c r="G27" s="17">
+      <c r="G27" s="13">
         <v>24.16</v>
       </c>
-      <c r="H27" s="18">
-        <f t="shared" si="0"/>
+      <c r="H27" s="17">
+        <f t="shared" si="1"/>
         <v>0.48320000000000002</v>
       </c>
-      <c r="I27" s="17">
+      <c r="I27" s="13">
         <v>1.0900000000000001</v>
       </c>
-      <c r="J27" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="K27" s="18">
-        <v>1.2752503158564019</v>
+      <c r="J27" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="K27" s="17">
+        <v>3.11</v>
       </c>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
@@ -2446,38 +2444,38 @@
       <c r="AE27" s="5"/>
     </row>
     <row r="28" spans="1:31" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="B28" s="17">
+      <c r="A28" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" s="13">
         <v>35</v>
       </c>
-      <c r="C28" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="E28" s="17">
+      <c r="C28" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E28" s="13">
         <v>34.741388999999998</v>
       </c>
-      <c r="F28" s="21">
+      <c r="F28" s="20">
         <v>-118.600056</v>
       </c>
-      <c r="G28" s="17">
+      <c r="G28" s="13">
         <v>24.27</v>
       </c>
-      <c r="H28" s="18">
-        <f t="shared" si="0"/>
+      <c r="H28" s="17">
+        <f t="shared" si="1"/>
         <v>0.4854</v>
       </c>
-      <c r="I28" s="17">
+      <c r="I28" s="13">
         <v>0.9</v>
       </c>
-      <c r="J28" s="17">
+      <c r="J28" s="13">
         <v>28</v>
       </c>
-      <c r="K28" s="18">
+      <c r="K28" s="17">
         <v>3.6392760607099746</v>
       </c>
       <c r="L28" s="1"/>
@@ -2502,39 +2500,39 @@
       <c r="AE28" s="5"/>
     </row>
     <row r="29" spans="1:31" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D29" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="B29" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="E29" s="17">
+      <c r="E29" s="13">
         <v>34.710417</v>
       </c>
-      <c r="F29" s="21">
+      <c r="F29" s="20">
         <v>-119.194778</v>
       </c>
-      <c r="G29" s="17">
+      <c r="G29" s="13">
         <v>24.318999999999999</v>
       </c>
-      <c r="H29" s="18">
-        <f t="shared" si="0"/>
+      <c r="H29" s="17">
+        <f t="shared" si="1"/>
         <v>0.48637999999999998</v>
       </c>
-      <c r="I29" s="17">
+      <c r="I29" s="13">
         <v>1.71</v>
       </c>
-      <c r="J29" s="17">
+      <c r="J29" s="13">
         <v>10</v>
       </c>
-      <c r="K29" s="18" t="s">
-        <v>52</v>
+      <c r="K29" s="17" t="s">
+        <v>50</v>
       </c>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
@@ -2558,38 +2556,38 @@
       <c r="AE29" s="5"/>
     </row>
     <row r="30" spans="1:31" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="B30" s="17">
+      <c r="A30" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B30" s="13">
         <v>12</v>
       </c>
-      <c r="C30" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="E30" s="17">
+      <c r="C30" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E30" s="13">
         <v>35.920805999999999</v>
       </c>
-      <c r="F30" s="21">
+      <c r="F30" s="20">
         <v>-120.49888900000001</v>
       </c>
-      <c r="G30" s="17">
+      <c r="G30" s="13">
         <v>24.49</v>
       </c>
-      <c r="H30" s="18">
-        <f t="shared" si="0"/>
+      <c r="H30" s="17">
+        <f t="shared" si="1"/>
         <v>0.48979999999999996</v>
       </c>
-      <c r="I30" s="17">
+      <c r="I30" s="13">
         <v>0.83</v>
       </c>
-      <c r="J30" s="17">
+      <c r="J30" s="13">
         <v>38</v>
       </c>
-      <c r="K30" s="18">
+      <c r="K30" s="17">
         <v>3.6378954434734778</v>
       </c>
       <c r="L30" s="1"/>
@@ -2614,38 +2612,38 @@
       <c r="AE30" s="5"/>
     </row>
     <row r="31" spans="1:31" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="B31" s="17">
+      <c r="A31" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="B31" s="13">
         <v>20</v>
       </c>
-      <c r="C31" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="E31" s="17">
+      <c r="C31" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E31" s="13">
         <v>35.499277999999997</v>
       </c>
-      <c r="F31" s="21">
+      <c r="F31" s="20">
         <v>-120.839528</v>
       </c>
-      <c r="G31" s="17">
+      <c r="G31" s="13">
         <v>25.375</v>
       </c>
-      <c r="H31" s="18">
-        <f t="shared" si="0"/>
+      <c r="H31" s="17">
+        <f t="shared" si="1"/>
         <v>0.50750000000000006</v>
       </c>
-      <c r="I31" s="17">
+      <c r="I31" s="13">
         <v>0.70499999999999996</v>
       </c>
-      <c r="J31" s="17">
+      <c r="J31" s="13">
         <v>56</v>
       </c>
-      <c r="K31" s="18">
+      <c r="K31" s="17">
         <v>1.8024835102323997</v>
       </c>
       <c r="L31" s="1"/>
@@ -2670,38 +2668,38 @@
       <c r="AE31" s="5"/>
     </row>
     <row r="32" spans="1:31" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="B32" s="17">
+      <c r="A32" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B32" s="13">
         <v>20</v>
       </c>
-      <c r="C32" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="E32" s="17">
+      <c r="C32" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="E32" s="13">
         <v>35.302416999999998</v>
       </c>
-      <c r="F32" s="21">
+      <c r="F32" s="20">
         <v>-120.697722</v>
       </c>
-      <c r="G32" s="17">
+      <c r="G32" s="13">
         <v>26.38</v>
       </c>
-      <c r="H32" s="18">
-        <f t="shared" si="0"/>
+      <c r="H32" s="17">
+        <f t="shared" si="1"/>
         <v>0.52759999999999996</v>
       </c>
-      <c r="I32" s="17">
+      <c r="I32" s="13">
         <v>1.03</v>
       </c>
-      <c r="J32" s="17">
+      <c r="J32" s="13">
         <v>33</v>
       </c>
-      <c r="K32" s="18">
+      <c r="K32" s="17">
         <v>3.8086997389653554</v>
       </c>
       <c r="L32" s="1"/>
@@ -2726,38 +2724,38 @@
       <c r="AE32" s="5"/>
     </row>
     <row r="33" spans="1:31" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="B33" s="17">
+      <c r="A33" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B33" s="13">
         <v>20</v>
       </c>
-      <c r="C33" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="D33" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="E33" s="17">
+      <c r="C33" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="E33" s="13">
         <v>35.335531000000003</v>
       </c>
-      <c r="F33" s="21">
+      <c r="F33" s="20">
         <v>-120.787119</v>
       </c>
-      <c r="G33" s="17">
+      <c r="G33" s="13">
         <v>26.43</v>
       </c>
-      <c r="H33" s="18">
-        <f t="shared" si="0"/>
+      <c r="H33" s="17">
+        <f t="shared" si="1"/>
         <v>0.52859999999999996</v>
       </c>
-      <c r="I33" s="17">
+      <c r="I33" s="13">
         <v>1.01</v>
       </c>
-      <c r="J33" s="17">
+      <c r="J33" s="13">
         <v>38</v>
       </c>
-      <c r="K33" s="18">
+      <c r="K33" s="17">
         <v>4.4983837857167668</v>
       </c>
       <c r="L33" s="1"/>
@@ -2782,39 +2780,39 @@
       <c r="AE33" s="5"/>
     </row>
     <row r="34" spans="1:31" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="B34" s="17">
+      <c r="A34" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B34" s="13">
         <v>20</v>
       </c>
-      <c r="C34" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="D34" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="E34" s="17">
+      <c r="C34" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="E34" s="13">
         <v>35.575186000000002</v>
       </c>
-      <c r="F34" s="21">
+      <c r="F34" s="20">
         <v>-121.073342</v>
       </c>
-      <c r="G34" s="17">
+      <c r="G34" s="13">
         <v>26.98</v>
       </c>
-      <c r="H34" s="18">
+      <c r="H34" s="17">
         <f>0.02*G34</f>
         <v>0.53959999999999997</v>
       </c>
-      <c r="I34" s="17">
+      <c r="I34" s="13">
         <v>1.1399999999999999</v>
       </c>
-      <c r="J34" s="17">
+      <c r="J34" s="13">
         <v>53</v>
       </c>
-      <c r="K34" s="18">
-        <v>2.8998859492955691</v>
+      <c r="K34" s="17">
+        <v>2.81</v>
       </c>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>

--- a/Supplement/TABLE_S1.xlsx
+++ b/Supplement/TABLE_S1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eanttila/Documents/GitHub/Anttila_et_al_Coast_Range_2024/Supplement/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eanttila/Documents/GitHub/Anttila_et_al_Coast_Range_2025/Supplement/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38A129D4-D57F-534B-BD52-F19E6E8AB892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF526D7-19F9-0A4F-8BA8-6F957149F12B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-340" yWindow="-28280" windowWidth="27940" windowHeight="18920" xr2:uid="{E6EAEA9F-A966-D44E-AB5D-1705853E1AF3}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="17580" xr2:uid="{E6EAEA9F-A966-D44E-AB5D-1705853E1AF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="100">
   <si>
     <t>Name</t>
   </si>
@@ -86,24 +86,15 @@
     <t>flow-banded rhyolite</t>
   </si>
   <si>
-    <t>MT24-1</t>
-  </si>
-  <si>
     <t>Moraga Fm</t>
   </si>
   <si>
-    <t>felsite/tuff</t>
-  </si>
-  <si>
     <t>OR24</t>
   </si>
   <si>
     <t>Upper Orinda Formation</t>
   </si>
   <si>
-    <t>clast of lithic tuff</t>
-  </si>
-  <si>
     <t>BM</t>
   </si>
   <si>
@@ -330,6 +321,21 @@
   </si>
   <si>
     <t>dacite-andesite volcaniclastic conglomerate.  Beechers Bay unit; lowest stratigraphic level exposure</t>
+  </si>
+  <si>
+    <t>felsite/tuff, received as zircon separate (MT24-1 of Gerasimov et al., 2024)</t>
+  </si>
+  <si>
+    <t>rhyolite tuff, received as zircon separate (BM22-1 of Henschel et al., 2024)</t>
+  </si>
+  <si>
+    <t>flow-banded rhyolite, received as zircon separate (IR22-1 of Henschel et al., 2024)</t>
+  </si>
+  <si>
+    <t>clast of lithic tuff, received as zircon separate (OR24-2 of Gerasimov et al., 2024)</t>
+  </si>
+  <si>
+    <t>MT24</t>
   </si>
 </sst>
 </file>
@@ -917,8 +923,8 @@
   <dimension ref="A1:AE985"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D13" sqref="D13"/>
+      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.6640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -926,7 +932,7 @@
     <col min="1" max="1" width="13.6640625" style="13"/>
     <col min="2" max="2" width="20.5" style="13" customWidth="1"/>
     <col min="3" max="3" width="25.5" style="13" customWidth="1"/>
-    <col min="4" max="4" width="44.1640625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="62.83203125" style="13" customWidth="1"/>
     <col min="5" max="10" width="13.6640625" style="13"/>
     <col min="11" max="11" width="13.6640625" style="11"/>
     <col min="12" max="30" width="13.6640625" style="1"/>
@@ -1000,7 +1006,7 @@
         <v>12</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E2" s="13">
         <v>38.624235779999999</v>
@@ -1101,16 +1107,16 @@
     </row>
     <row r="4" spans="1:31" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="B4" s="13">
         <v>11</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="E4" s="13">
         <v>37.866109999999999</v>
@@ -1157,16 +1163,16 @@
     </row>
     <row r="5" spans="1:31" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B5" s="13">
         <v>11</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="E5" s="19">
         <v>37.865270000000002</v>
@@ -1213,16 +1219,16 @@
     </row>
     <row r="6" spans="1:31" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B6" s="13">
         <v>10</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="E6" s="20">
         <v>38.145591000000003</v>
@@ -1269,16 +1275,16 @@
     </row>
     <row r="7" spans="1:31" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="E7" s="19">
         <v>37.892184</v>
@@ -1325,16 +1331,16 @@
     </row>
     <row r="8" spans="1:31" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B8" s="13">
         <v>45</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E8" s="13">
         <v>33.734678000000002</v>
@@ -1381,16 +1387,16 @@
     </row>
     <row r="9" spans="1:31" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B9" s="13">
         <v>41</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E9" s="13">
         <v>34.087860999999997</v>
@@ -1437,16 +1443,16 @@
     </row>
     <row r="10" spans="1:31" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B10" s="13">
         <v>26</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E10" s="20">
         <v>33.9931883</v>
@@ -1493,16 +1499,16 @@
     </row>
     <row r="11" spans="1:31" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B11" s="13">
         <v>26</v>
       </c>
       <c r="C11" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="13" t="s">
         <v>35</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>38</v>
       </c>
       <c r="E11" s="20">
         <v>33.989166699999998</v>
@@ -1521,7 +1527,7 @@
         <v>0.87</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K11" s="17">
         <v>8.3312088524398895</v>
@@ -1549,16 +1555,16 @@
     </row>
     <row r="12" spans="1:31" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B12" s="13">
         <v>26</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E12" s="13">
         <v>34.001448500000002</v>
@@ -1605,16 +1611,16 @@
     </row>
     <row r="13" spans="1:31" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B13" s="13">
         <v>26</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E13" s="20">
         <v>34.001396800000002</v>
@@ -1661,16 +1667,16 @@
     </row>
     <row r="14" spans="1:31" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B14" s="13">
         <v>26</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E14" s="20">
         <v>33.988638899999998</v>
@@ -1717,16 +1723,16 @@
     </row>
     <row r="15" spans="1:31" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B15" s="13">
         <v>26</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E15" s="20">
         <v>33.997361099999999</v>
@@ -1773,16 +1779,16 @@
     </row>
     <row r="16" spans="1:31" s="4" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B16" s="13">
         <v>26</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E16" s="13">
         <v>33.979957800000001</v>
@@ -1804,7 +1810,7 @@
         <v>4</v>
       </c>
       <c r="K16" s="17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
@@ -1829,16 +1835,16 @@
     </row>
     <row r="17" spans="1:31" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B17" s="13">
         <v>26</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E17" s="20">
         <v>33.980479600000002</v>
@@ -1860,7 +1866,7 @@
         <v>15</v>
       </c>
       <c r="K17" s="17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
@@ -1885,16 +1891,16 @@
     </row>
     <row r="18" spans="1:31" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B18" s="13">
         <v>24</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E18" s="13">
         <v>34.016395500000002</v>
@@ -1941,16 +1947,16 @@
     </row>
     <row r="19" spans="1:31" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B19" s="13">
         <v>27</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E19" s="13">
         <v>34.185271999999998</v>
@@ -1972,7 +1978,7 @@
         <v>2</v>
       </c>
       <c r="K19" s="17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
@@ -1997,16 +2003,16 @@
     </row>
     <row r="20" spans="1:31" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B20" s="13">
         <v>22</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E20" s="13">
         <v>35.135568999999997</v>
@@ -2053,16 +2059,16 @@
     </row>
     <row r="21" spans="1:31" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B21" s="13">
         <v>22</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E21" s="13">
         <v>34.884538999999997</v>
@@ -2109,16 +2115,16 @@
     </row>
     <row r="22" spans="1:31" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B22" s="13">
         <v>30</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E22" s="13">
         <v>34.582757999999998</v>
@@ -2165,16 +2171,16 @@
     </row>
     <row r="23" spans="1:31" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B23" s="13">
         <v>35</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E23" s="13">
         <v>34.948416999999999</v>
@@ -2221,16 +2227,16 @@
     </row>
     <row r="24" spans="1:31" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B24" s="13">
         <v>15</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E24" s="13">
         <v>36.815277999999999</v>
@@ -2277,16 +2283,16 @@
     </row>
     <row r="25" spans="1:31" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B25" s="13">
         <v>15</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E25" s="13">
         <v>36.483694</v>
@@ -2333,16 +2339,16 @@
     </row>
     <row r="26" spans="1:31" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="13" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B26" s="13">
         <v>15</v>
       </c>
       <c r="C26" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" s="13" t="s">
         <v>71</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>74</v>
       </c>
       <c r="E26" s="13">
         <v>36.485250000000001</v>
@@ -2389,16 +2395,16 @@
     </row>
     <row r="27" spans="1:31" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B27" s="13">
         <v>15</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E27" s="13">
         <v>36.498860999999998</v>
@@ -2417,7 +2423,7 @@
         <v>1.0900000000000001</v>
       </c>
       <c r="J27" s="13" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="K27" s="17">
         <v>3.11</v>
@@ -2445,16 +2451,16 @@
     </row>
     <row r="28" spans="1:31" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B28" s="13">
         <v>35</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E28" s="13">
         <v>34.741388999999998</v>
@@ -2501,16 +2507,16 @@
     </row>
     <row r="29" spans="1:31" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D29" s="13" t="s">
         <v>80</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>83</v>
       </c>
       <c r="E29" s="13">
         <v>34.710417</v>
@@ -2532,7 +2538,7 @@
         <v>10</v>
       </c>
       <c r="K29" s="17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
@@ -2557,16 +2563,16 @@
     </row>
     <row r="30" spans="1:31" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B30" s="13">
         <v>12</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E30" s="13">
         <v>35.920805999999999</v>
@@ -2613,16 +2619,16 @@
     </row>
     <row r="31" spans="1:31" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="13" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B31" s="13">
         <v>20</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E31" s="13">
         <v>35.499277999999997</v>
@@ -2669,16 +2675,16 @@
     </row>
     <row r="32" spans="1:31" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="13" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B32" s="13">
         <v>20</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E32" s="13">
         <v>35.302416999999998</v>
@@ -2725,16 +2731,16 @@
     </row>
     <row r="33" spans="1:31" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="13" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B33" s="13">
         <v>20</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E33" s="13">
         <v>35.335531000000003</v>
@@ -2781,16 +2787,16 @@
     </row>
     <row r="34" spans="1:31" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="13" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B34" s="13">
         <v>20</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E34" s="13">
         <v>35.575186000000002</v>
